--- a/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,88</t>
+          <t>-0,48; 6,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,97</t>
+          <t>-3,73; 1,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 11,36</t>
+          <t>2,45; 10,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,21</t>
+          <t>-5,23; -0,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,34</t>
+          <t>2,12; 7,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,23</t>
+          <t>-3,97; -0,24</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 337,98</t>
+          <t>-15,54; 462,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,1; 80,3</t>
+          <t>-85,68; 93,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 584,34</t>
+          <t>30,76; 601,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,58; 14,63</t>
+          <t>-91,39; 17,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,01; 335,35</t>
+          <t>43,54; 371,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,89; -0,25</t>
+          <t>-82,2; 1,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,93</t>
+          <t>-2,98; 3,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,15</t>
+          <t>-4,8; 0,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,69</t>
+          <t>-3,38; 2,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,01</t>
+          <t>0,47; 7,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,26</t>
+          <t>-5,87; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,06</t>
+          <t>-1,81; 4,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,6</t>
+          <t>0,06; 4,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -0,83</t>
+          <t>-4,65; -0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,3</t>
+          <t>-1,61; 2,63</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 96,84</t>
+          <t>-49,23; 102,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,72; 9,63</t>
+          <t>-75,36; 22,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 79,2</t>
+          <t>-56,14; 75,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 157,49</t>
+          <t>3,82; 159,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,85; -1,43</t>
+          <t>-68,25; 1,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 80,64</t>
+          <t>-22,61; 82,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 96,75</t>
+          <t>0,28; 98,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,73; -14,95</t>
+          <t>-66,2; -14,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 53,25</t>
+          <t>-23,95; 59,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,42</t>
+          <t>-0,68; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,99</t>
+          <t>-1,64; 2,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,57</t>
+          <t>3,46; 9,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,6</t>
+          <t>1,34; 7,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,09</t>
+          <t>-3,7; 0,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,66</t>
+          <t>5,45; 11,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,91</t>
+          <t>1,07; 4,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,5</t>
+          <t>-1,89; 0,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,0</t>
+          <t>5,81; 9,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 1117,75</t>
+          <t>-64,62; 976,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 794,65</t>
+          <t>-85,72; 702,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,11; 2550,84</t>
+          <t>80,34; 2472,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,1; 675,93</t>
+          <t>26,89; 649,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 45,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>126,07; 1142,14</t>
+          <t>141,72; 1159,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,78; 486,28</t>
+          <t>35,01; 511,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,02; 63,34</t>
+          <t>-79,23; 90,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>193,82; 1047,72</t>
+          <t>203,98; 1070,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,25</t>
+          <t>0,54; 4,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,57</t>
+          <t>1,01; 5,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,94</t>
+          <t>2,36; 8,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 13,68</t>
+          <t>7,32; 13,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,13</t>
+          <t>1,75; 8,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,43</t>
+          <t>1,56; 6,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,46</t>
+          <t>4,78; 8,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,28</t>
+          <t>1,92; 6,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,91</t>
+          <t>2,82; 6,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 860,86</t>
+          <t>3,3; 1329,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1115,38</t>
+          <t>25,36; 1242,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,6; 2113,43</t>
+          <t>48,41; 1597,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>173,63; 1034,92</t>
+          <t>174,2; 1077,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,7; 598,67</t>
+          <t>43,19; 551,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,15; 479,15</t>
+          <t>33,34; 527,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>157,4; 737,17</t>
+          <t>156,46; 774,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>71,4; 526,31</t>
+          <t>58,79; 512,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,91; 548,65</t>
+          <t>91,94; 562,02</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,12</t>
+          <t>-2,86; 3,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,39</t>
+          <t>-2,04; 4,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 4,58</t>
+          <t>-1,54; 4,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,37</t>
+          <t>-0,27; 10,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,62</t>
+          <t>-4,06; 5,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,93</t>
+          <t>-6,12; 1,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,54</t>
+          <t>-0,54; 5,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,81</t>
+          <t>-2,03; 3,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,3</t>
+          <t>-2,66; 2,38</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 269,28</t>
+          <t>-69,72; 358,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 346,52</t>
+          <t>-55,71; 437,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 360,58</t>
+          <t>-47,21; 357,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 242,72</t>
+          <t>-7,45; 267,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 150,06</t>
+          <t>-47,54; 137,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 55,11</t>
+          <t>-62,44; 48,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 178,18</t>
+          <t>-11,0; 176,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 118,04</t>
+          <t>-34,96; 127,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 72,98</t>
+          <t>-41,77; 78,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,43</t>
+          <t>2,34; 7,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,0</t>
+          <t>2,12; 6,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,03</t>
+          <t>3,75; 7,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,6</t>
+          <t>1,24; 7,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,65</t>
+          <t>2,36; 10,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,74</t>
+          <t>4,34; 10,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,64</t>
+          <t>2,55; 6,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,45</t>
+          <t>2,85; 7,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,03</t>
+          <t>4,59; 8,11</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,31; 1037,9</t>
+          <t>6,18; 1013,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>57,24; 1768,41</t>
+          <t>44,07; 1148,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>103,96; 1439,09</t>
+          <t>91,52; 1247,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>116,45; 1548,06</t>
+          <t>128,15; 2013,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>143,03; 1895,82</t>
+          <t>133,63; 1740,14</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>220,88; 2004,02</t>
+          <t>232,34; 2004,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,07</t>
+          <t>-4,32; -0,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,18</t>
+          <t>-2,79; 2,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,09</t>
+          <t>-0,44; 4,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,33</t>
+          <t>-3,91; 1,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,76</t>
+          <t>-1,99; 3,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,24</t>
+          <t>-2,46; 4,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,01</t>
+          <t>-3,33; -0,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,3</t>
+          <t>-1,45; 2,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,94</t>
+          <t>-0,29; 3,7</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-76,2; 3,86</t>
+          <t>-74,66; -1,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 70,08</t>
+          <t>-47,83; 67,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 158,65</t>
+          <t>-10,09; 141,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 25,76</t>
+          <t>-48,37; 28,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 73,21</t>
+          <t>-26,07; 71,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 80,69</t>
+          <t>-27,98; 79,18</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -1,24</t>
+          <t>-51,84; 0,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 51,75</t>
+          <t>-24,33; 49,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 86,0</t>
+          <t>-4,63; 78,48</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,08</t>
+          <t>1,98; 7,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,34</t>
+          <t>-3,63; 0,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,53</t>
+          <t>-1,75; 2,52</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,17</t>
+          <t>1,73; 7,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,33</t>
+          <t>-4,96; -0,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,45</t>
+          <t>-1,14; 3,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,41</t>
+          <t>2,49; 6,37</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,39</t>
+          <t>-3,29; -0,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,29</t>
+          <t>-0,82; 2,31</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>36,98; 215,2</t>
+          <t>35,81; 202,56</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,19; 11,01</t>
+          <t>-65,57; 8,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 73,58</t>
+          <t>-31,32; 78,59</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>20,37; 154,43</t>
+          <t>21,52; 158,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-64,16; -6,67</t>
+          <t>-64,63; -1,06</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 77,39</t>
+          <t>-15,46; 73,02</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>38,66; 150,47</t>
+          <t>41,27; 147,38</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-56,02; -6,91</t>
+          <t>-56,08; -9,39</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 52,98</t>
+          <t>-13,75; 53,17</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>0,52; 2,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-0,66; 1,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,07</t>
+          <t>1,09; 3,07</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,13; 5,65</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-0,38; 1,78</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,52</t>
+          <t>1,23; 3,48</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>2,22; 3,94</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,24; 1,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,03</t>
+          <t>1,53; 3,01</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>15,65; 97,16</t>
+          <t>13,47; 89,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 40,33</t>
+          <t>-18,31; 43,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>30,69; 113,2</t>
+          <t>29,14; 110,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>60,87; 133,53</t>
+          <t>58,54; 131,86</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 39,7</t>
+          <t>-6,92; 42,43</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>22,45; 81,86</t>
+          <t>22,72; 80,43</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>50,02; 104,39</t>
+          <t>51,51; 108,9</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 33,43</t>
+          <t>-5,57; 32,7</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>36,53; 82,88</t>
+          <t>35,49; 83,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,29</t>
+          <t>-0,34; 6,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,01</t>
+          <t>-3,8; 1,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,76</t>
+          <t>2,27; 11,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,11</t>
+          <t>-5,34; -0,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,61</t>
+          <t>1,91; 7,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -0,24</t>
+          <t>-3,58; -0,1</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 462,64</t>
+          <t>-14,08; 472,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,68; 93,11</t>
+          <t>-86,52; 140,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,76; 601,03</t>
+          <t>30,38; 636,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,39; 17,89</t>
+          <t>-91,37; 9,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,54; 371,98</t>
+          <t>41,95; 334,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,2; 1,76</t>
+          <t>-80,78; 8,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,04</t>
+          <t>-2,94; 2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,35</t>
+          <t>-4,59; -0,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,4</t>
+          <t>-3,18; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 7,97</t>
+          <t>0,25; 7,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -0,13</t>
+          <t>-5,7; -0,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,23</t>
+          <t>-1,87; 4,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,5</t>
+          <t>-0,08; 4,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,82</t>
+          <t>-4,34; -0,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,63</t>
+          <t>-1,54; 2,72</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 102,95</t>
+          <t>-49,4; 87,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 22,57</t>
+          <t>-76,18; 7,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,14; 75,87</t>
+          <t>-53,21; 71,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 159,18</t>
+          <t>1,38; 162,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 1,6</t>
+          <t>-70,19; -1,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 82,72</t>
+          <t>-22,2; 85,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 98,56</t>
+          <t>-3,5; 102,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,2; -14,9</t>
+          <t>-65,0; -16,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 59,19</t>
+          <t>-23,82; 59,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,22</t>
+          <t>-0,67; 3,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,04</t>
+          <t>-1,57; 1,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,42</t>
+          <t>3,6; 9,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,33</t>
+          <t>1,51; 7,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,04</t>
+          <t>-3,64; -0,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,67</t>
+          <t>5,58; 11,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,96</t>
+          <t>1,09; 5,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,64</t>
+          <t>-2,11; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,99</t>
+          <t>5,68; 10,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 976,23</t>
+          <t>-64,49; 1246,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,72; 702,08</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,34; 2472,8</t>
+          <t>66,08; 2777,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,89; 649,47</t>
+          <t>35,48; 636,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,66</t>
+          <t>-100,0; 48,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>141,72; 1159,43</t>
+          <t>148,18; 1067,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,01; 511,74</t>
+          <t>30,74; 486,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,23; 90,38</t>
+          <t>-81,41; 80,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>203,98; 1070,89</t>
+          <t>201,95; 1180,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,44</t>
+          <t>0,64; 4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,72</t>
+          <t>0,84; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,58</t>
+          <t>2,34; 9,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,73</t>
+          <t>7,57; 13,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,2</t>
+          <t>1,88; 8,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,67</t>
+          <t>1,52; 6,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,49</t>
+          <t>4,64; 8,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,14</t>
+          <t>1,92; 6,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,83</t>
+          <t>2,75; 6,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,3; 1329,38</t>
+          <t>2,85; 961,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,36; 1242,37</t>
+          <t>12,99; 1660,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,41; 1597,87</t>
+          <t>62,2; 2277,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>174,2; 1077,36</t>
+          <t>185,69; 1093,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,19; 551,45</t>
+          <t>36,18; 605,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,34; 527,75</t>
+          <t>36,59; 509,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>156,46; 774,92</t>
+          <t>152,59; 730,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,79; 512,42</t>
+          <t>61,63; 485,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>91,94; 562,02</t>
+          <t>88,69; 537,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,6</t>
+          <t>-2,72; 3,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,56</t>
+          <t>-2,06; 4,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,71</t>
+          <t>-1,64; 4,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,34</t>
+          <t>-0,26; 10,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 5,4</t>
+          <t>-4,66; 5,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 1,88</t>
+          <t>-6,16; 1,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,87</t>
+          <t>-0,44; 5,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,92</t>
+          <t>-1,89; 3,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,38</t>
+          <t>-2,39; 2,7</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,72; 358,36</t>
+          <t>-78,24; 346,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 437,61</t>
+          <t>-64,04; 335,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 357,37</t>
+          <t>-47,16; 382,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 267,94</t>
+          <t>-7,22; 253,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 137,18</t>
+          <t>-52,12; 120,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 48,61</t>
+          <t>-62,33; 53,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 176,67</t>
+          <t>-11,12; 177,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 127,34</t>
+          <t>-33,5; 123,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 78,48</t>
+          <t>-37,79; 87,7</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,47</t>
+          <t>2,34; 7,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,99</t>
+          <t>2,11; 7,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,91</t>
+          <t>1,24; 7,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,26</t>
+          <t>2,5; 10,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,08</t>
+          <t>4,33; 9,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,76</t>
+          <t>2,43; 6,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,65</t>
+          <t>3,12; 7,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,11</t>
+          <t>4,38; 8,01</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,18; 1013,92</t>
+          <t>15,54; 981,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>44,07; 1148,54</t>
+          <t>55,91; 1230,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>91,52; 1247,44</t>
+          <t>94,64; 1146,27</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>128,15; 2013,24</t>
+          <t>111,55; 1443,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>133,63; 1740,14</t>
+          <t>142,78; 1663,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>232,34; 2004,23</t>
+          <t>193,21; 1871,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,32; -0,25</t>
+          <t>-4,48; -0,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,11</t>
+          <t>-2,63; 2,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,87</t>
+          <t>-0,35; 4,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,4</t>
+          <t>-3,78; 1,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,77</t>
+          <t>-1,94; 3,97</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 4,3</t>
+          <t>-2,55; 4,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,04</t>
+          <t>-3,46; 0,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,19</t>
+          <t>-1,6; 2,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,7</t>
+          <t>-0,2; 3,76</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-74,66; -1,88</t>
+          <t>-75,77; 0,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 67,28</t>
+          <t>-46,92; 61,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 141,96</t>
+          <t>-7,38; 144,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 28,99</t>
+          <t>-49,29; 26,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 71,17</t>
+          <t>-25,42; 79,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 79,18</t>
+          <t>-30,1; 76,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 0,27</t>
+          <t>-52,98; 0,99</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 49,31</t>
+          <t>-25,95; 46,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 78,48</t>
+          <t>-3,25; 80,75</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,08</t>
+          <t>2,05; 7,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,2</t>
+          <t>-3,5; 0,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,52</t>
+          <t>-1,59; 2,52</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,28</t>
+          <t>1,47; 7,15</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -0,19</t>
+          <t>-4,53; -0,2</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,34</t>
+          <t>-0,99; 3,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,37</t>
+          <t>2,6; 6,37</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -0,42</t>
+          <t>-3,34; -0,38</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,31</t>
+          <t>-0,74; 2,29</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>35,81; 202,56</t>
+          <t>36,99; 219,52</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 8,11</t>
+          <t>-63,15; 12,47</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 78,59</t>
+          <t>-30,5; 73,36</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>21,52; 158,36</t>
+          <t>19,79; 152,83</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-64,63; -1,06</t>
+          <t>-61,93; 0,11</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 73,02</t>
+          <t>-14,26; 78,43</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>41,27; 147,38</t>
+          <t>41,55; 141,76</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-56,08; -9,39</t>
+          <t>-56,49; -7,0</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 53,17</t>
+          <t>-12,07; 54,36</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,47</t>
+          <t>0,44; 2,43</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,21</t>
+          <t>-0,61; 1,14</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,07</t>
+          <t>1,09; 3,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,65</t>
+          <t>3,24; 5,74</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,78</t>
+          <t>-0,48; 1,74</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,48</t>
+          <t>1,24; 3,42</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,94</t>
+          <t>2,16; 3,76</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,2</t>
+          <t>-0,22; 1,18</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,01</t>
+          <t>1,61; 3,01</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>13,47; 89,0</t>
+          <t>11,73; 87,21</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 43,99</t>
+          <t>-17,68; 41,12</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>29,14; 110,52</t>
+          <t>29,9; 110,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>58,54; 131,86</t>
+          <t>57,19; 128,34</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 42,43</t>
+          <t>-8,71; 40,31</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>22,72; 80,43</t>
+          <t>23,13; 79,6</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>51,51; 108,9</t>
+          <t>48,08; 100,33</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 32,7</t>
+          <t>-5,17; 31,82</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>35,49; 83,14</t>
+          <t>36,63; 81,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,33</t>
+          <t>-0,57; 5,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,49</t>
+          <t>-4,32; 0,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,41</t>
+          <t>2,2; 11,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,2</t>
+          <t>-5,41; -0,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,2</t>
+          <t>2,12; 7,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,1</t>
+          <t>-3,8; -0,23</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 472,22</t>
+          <t>-23,34; 337,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,52; 140,1</t>
+          <t>-90,1; 80,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,38; 636,71</t>
+          <t>33,07; 584,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,37; 9,16</t>
+          <t>-89,58; 14,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,95; 334,45</t>
+          <t>42,01; 335,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,78; 8,02</t>
+          <t>-81,89; -0,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,7</t>
+          <t>-2,8; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,04</t>
+          <t>-4,8; 0,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,43</t>
+          <t>-3,19; 2,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 7,9</t>
+          <t>0,53; 8,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,18</t>
+          <t>-6,05; -0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,1</t>
+          <t>-1,99; 4,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,65</t>
+          <t>0,01; 4,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -0,79</t>
+          <t>-4,62; -0,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,72</t>
+          <t>-1,77; 2,3</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 87,31</t>
+          <t>-48,97; 96,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,18; 7,02</t>
+          <t>-76,72; 9,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,21; 71,67</t>
+          <t>-53,71; 79,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 162,44</t>
+          <t>5,02; 157,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,19; -1,73</t>
+          <t>-70,85; -1,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 85,17</t>
+          <t>-26,24; 80,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 102,15</t>
+          <t>-2,08; 96,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -16,46</t>
+          <t>-66,73; -14,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 59,05</t>
+          <t>-27,28; 53,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,94</t>
+          <t>-0,57; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,95</t>
+          <t>-1,68; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,58</t>
+          <t>3,82; 9,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,46</t>
+          <t>1,33; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; -0,01</t>
+          <t>-3,58; 0,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,72</t>
+          <t>5,75; 11,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,01</t>
+          <t>1,14; 4,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,54</t>
+          <t>-2,08; 0,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,15</t>
+          <t>5,79; 10,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,49; 1246,7</t>
+          <t>-65,03; 1117,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-100,0; 794,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,08; 2777,35</t>
+          <t>90,11; 2550,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,48; 636,32</t>
+          <t>24,1; 675,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 48,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>148,18; 1067,51</t>
+          <t>126,07; 1142,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,74; 486,15</t>
+          <t>37,78; 486,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,41; 80,33</t>
+          <t>-81,02; 63,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>201,95; 1180,3</t>
+          <t>193,82; 1047,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,2</t>
+          <t>0,61; 4,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,86</t>
+          <t>0,84; 5,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,01</t>
+          <t>2,27; 8,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 13,55</t>
+          <t>7,72; 13,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,15</t>
+          <t>1,97; 8,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,61</t>
+          <t>1,78; 6,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,44</t>
+          <t>4,84; 8,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,2</t>
+          <t>2,09; 6,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,58</t>
+          <t>2,84; 6,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,85; 961,42</t>
+          <t>1,3; 860,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,99; 1660,38</t>
+          <t>0,09; 1115,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,2; 2277,42</t>
+          <t>65,6; 2113,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>185,69; 1093,44</t>
+          <t>173,63; 1034,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,18; 605,47</t>
+          <t>43,7; 598,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,59; 509,58</t>
+          <t>38,15; 479,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>152,59; 730,94</t>
+          <t>157,4; 737,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,63; 485,94</t>
+          <t>71,4; 526,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,69; 537,35</t>
+          <t>90,91; 548,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,54</t>
+          <t>-3,39; 3,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,28</t>
+          <t>-2,24; 4,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,67</t>
+          <t>-1,46; 4,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 10,29</t>
+          <t>-0,91; 10,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,23</t>
+          <t>-4,02; 5,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 1,9</t>
+          <t>-5,96; 1,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,7</t>
+          <t>-0,76; 5,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,91</t>
+          <t>-2,03; 3,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,7</t>
+          <t>-2,39; 2,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,24; 346,23</t>
+          <t>-77,9; 269,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 335,97</t>
+          <t>-66,29; 346,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 382,34</t>
+          <t>-41,24; 360,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 253,27</t>
+          <t>-11,45; 242,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,12; 120,27</t>
+          <t>-45,04; 150,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 53,41</t>
+          <t>-60,87; 55,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 177,85</t>
+          <t>-13,2; 178,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 123,16</t>
+          <t>-34,32; 118,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 87,7</t>
+          <t>-39,25; 72,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,5</t>
+          <t>2,31; 7,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,06</t>
+          <t>1,98; 7,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,92</t>
+          <t>3,81; 8,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,79</t>
+          <t>1,28; 7,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,77</t>
+          <t>2,53; 10,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,96</t>
+          <t>4,12; 9,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,8</t>
+          <t>2,5; 6,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,71</t>
+          <t>2,97; 7,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,01</t>
+          <t>4,52; 8,03</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,54; 981,72</t>
+          <t>9,31; 1037,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>55,91; 1230,1</t>
+          <t>57,24; 1768,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>94,64; 1146,27</t>
+          <t>103,96; 1439,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>111,55; 1443,88</t>
+          <t>116,45; 1548,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>142,78; 1663,47</t>
+          <t>143,03; 1895,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>193,21; 1871,13</t>
+          <t>220,88; 2004,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,14</t>
+          <t>-4,59; -0,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,01</t>
+          <t>-2,64; 2,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,93</t>
+          <t>-0,26; 5,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,37</t>
+          <t>-3,85; 1,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,97</t>
+          <t>-1,93; 3,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,13</t>
+          <t>-2,3; 4,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,04</t>
+          <t>-3,45; -0,01</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,15</t>
+          <t>-1,53; 2,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,76</t>
+          <t>-0,22; 3,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-75,77; 0,31</t>
+          <t>-76,2; 3,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 61,92</t>
+          <t>-45,06; 70,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 144,9</t>
+          <t>-6,94; 158,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 26,9</t>
+          <t>-49,21; 25,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 79,81</t>
+          <t>-26,15; 73,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 76,16</t>
+          <t>-29,23; 80,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-52,98; 0,99</t>
+          <t>-55,51; -1,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 46,66</t>
+          <t>-24,47; 51,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 80,75</t>
+          <t>-3,27; 86,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,29</t>
+          <t>1,92; 7,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,34</t>
+          <t>-3,57; 0,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,52</t>
+          <t>-1,62; 2,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,15</t>
+          <t>1,64; 7,17</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,53; -0,2</t>
+          <t>-4,54; -0,33</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,66</t>
+          <t>-1,02; 3,45</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,37</t>
+          <t>2,43; 6,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -0,38</t>
+          <t>-3,4; -0,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,29</t>
+          <t>-1,04; 2,29</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>36,99; 219,52</t>
+          <t>36,98; 215,2</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 12,47</t>
+          <t>-64,19; 11,01</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 73,36</t>
+          <t>-31,18; 73,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>19,79; 152,83</t>
+          <t>20,37; 154,43</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-61,93; 0,11</t>
+          <t>-64,16; -6,67</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 78,43</t>
+          <t>-14,35; 77,39</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>41,55; 141,76</t>
+          <t>38,66; 150,47</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -7,0</t>
+          <t>-56,02; -6,91</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 54,36</t>
+          <t>-15,8; 52,98</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,43</t>
+          <t>0,6; 2,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2423,37 +2423,37 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,05</t>
+          <t>1,1; 3,07</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,74</t>
+          <t>3,3; 5,74</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,74</t>
+          <t>-0,52; 1,72</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,42</t>
+          <t>1,2; 3,52</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,76</t>
+          <t>2,16; 3,81</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,18</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,01</t>
+          <t>1,6; 3,03</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>11,73; 87,21</t>
+          <t>15,65; 97,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 41,12</t>
+          <t>-17,34; 40,33</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>29,9; 110,88</t>
+          <t>30,69; 113,2</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>57,19; 128,34</t>
+          <t>60,87; 133,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 40,31</t>
+          <t>-9,66; 39,7</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,13; 79,6</t>
+          <t>22,45; 81,86</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>48,08; 100,33</t>
+          <t>50,02; 104,39</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 31,82</t>
+          <t>-4,3; 33,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>36,63; 81,6</t>
+          <t>36,53; 82,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 5,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,97</t>
+          <t>-4,37; 0,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 20,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -0,21</t>
+          <t>-5,43; -0,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 11,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,23</t>
+          <t>-3,81; -0,23</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-43,98%</t>
+          <t>-46,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>454,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-66,16%</t>
+          <t>-66,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,01%</t>
+          <t>-57,05%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,57; 335,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,1; 80,3</t>
+          <t>-90,31; 75,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>162,28; 1123,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,58; 14,63</t>
+          <t>-89,67; 13,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,5; 542,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,89; -0,25</t>
+          <t>-82,63; 1,34</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,69</t>
+          <t>-3,31; 2,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,06</t>
+          <t>-2,03; 3,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,3</t>
+          <t>-1,94; 2,16</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 79,2</t>
+          <t>-55,31; 76,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 80,64</t>
+          <t>-27,22; 79,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 53,25</t>
+          <t>-30,08; 48,78</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,53</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,57</t>
+          <t>3,69; 9,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 11,66</t>
+          <t>5,47; 11,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,0</t>
+          <t>5,61; 9,73</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>563,93%</t>
+          <t>546,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>403,31%</t>
+          <t>395,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>462,19%</t>
+          <t>449,22%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,11; 2550,84</t>
+          <t>85,73; 2544,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>126,07; 1142,14</t>
+          <t>122,28; 1120,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>193,82; 1047,72</t>
+          <t>187,34; 1025,58</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,25</t>
+          <t>-0,9; 3,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,94</t>
+          <t>2,21; 8,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 13,68</t>
+          <t>3,61; 10,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,43</t>
+          <t>-0,05; 5,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,46</t>
+          <t>2,1; 6,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,91</t>
+          <t>1,87; 6,24</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>188,76%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>396,82%</t>
+          <t>392,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>432,53%</t>
+          <t>271,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>168,72%</t>
+          <t>123,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>348,06%</t>
+          <t>213,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>245,67%</t>
+          <t>209,34%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 860,86</t>
+          <t>-56,17; 727,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,6; 2113,43</t>
+          <t>61,52; 2127,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>173,63; 1034,92</t>
+          <t>83,52; 720,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,15; 479,15</t>
+          <t>-1,2; 359,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>157,4; 737,17</t>
+          <t>69,99; 509,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,91; 548,65</t>
+          <t>66,54; 500,91</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 4,58</t>
+          <t>-1,46; 4,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,93</t>
+          <t>-5,94; 1,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,3</t>
+          <t>-2,38; 2,31</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-25,29%</t>
+          <t>-25,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 360,58</t>
+          <t>-42,18; 364,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 55,11</t>
+          <t>-60,96; 55,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 72,98</t>
+          <t>-38,89; 74,98</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>6,12</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,03</t>
+          <t>3,72; 7,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,74</t>
+          <t>4,12; 9,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,03</t>
+          <t>4,42; 7,94</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>365,88%</t>
+          <t>365,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>641,45%</t>
+          <t>631,68%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>103,96; 1439,09</t>
+          <t>104,44; 1496,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>220,88; 2004,02</t>
+          <t>215,12; 1964,57</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,09</t>
+          <t>-0,43; 4,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,24</t>
+          <t>-4,08; 3,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,94</t>
+          <t>-1,71; 3,32</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>53,0%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 158,65</t>
+          <t>-11,66; 146,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 80,69</t>
+          <t>-55,32; 64,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 86,0</t>
+          <t>-25,58; 69,64</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,53</t>
+          <t>-3,57; 1,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,45</t>
+          <t>-0,95; 3,5</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,29</t>
+          <t>-2,58; 1,74</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>-14,55%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 73,58</t>
+          <t>-65,46; 41,02</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 77,39</t>
+          <t>-12,6; 80,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 52,98</t>
+          <t>-41,45; 37,58</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,07</t>
+          <t>0,34; 2,65</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,52</t>
+          <t>0,5; 3,18</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,03</t>
+          <t>0,9; 2,59</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>66,09%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>30,69; 113,2</t>
+          <t>11,13; 98,63</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>22,45; 81,86</t>
+          <t>9,7; 72,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>36,53; 82,88</t>
+          <t>20,62; 70,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,56</t>
+          <t>-0,76; 5,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,88</t>
+          <t>-0,6; 6,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,86</t>
+          <t>-4,01; 1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 20,45</t>
+          <t>9,98; 20,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 11,36</t>
+          <t>2,73; 11,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,22</t>
+          <t>-5,09; -0,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 11,83</t>
+          <t>5,67; 11,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,34</t>
+          <t>2,23; 7,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; -0,23</t>
+          <t>-3,55; -0,13</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 335,02</t>
+          <t>-23,04; 331,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 337,98</t>
+          <t>-26,71; 381,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,31; 75,57</t>
+          <t>-86,16; 94,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>162,28; 1123,28</t>
+          <t>180,47; 1125,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 584,34</t>
+          <t>44,74; 682,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 13,24</t>
+          <t>-90,45; 47,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>115,5; 542,77</t>
+          <t>125,64; 546,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,01; 335,35</t>
+          <t>46,06; 358,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,63; 1,34</t>
+          <t>-81,22; 5,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,93</t>
+          <t>-2,88; 2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,15</t>
+          <t>-4,94; -0,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,52</t>
+          <t>-3,29; 2,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,01</t>
+          <t>0,54; 7,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,26</t>
+          <t>-5,83; -0,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,99</t>
+          <t>-1,99; 3,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,6</t>
+          <t>-0,13; 4,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -0,83</t>
+          <t>-4,57; -0,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,16</t>
+          <t>-1,81; 2,27</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 96,84</t>
+          <t>-47,76; 87,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,72; 9,63</t>
+          <t>-76,81; 5,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 76,31</t>
+          <t>-53,54; 70,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 157,49</t>
+          <t>6,09; 149,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,85; -1,43</t>
+          <t>-71,59; -0,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 79,44</t>
+          <t>-24,09; 80,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 96,75</t>
+          <t>-2,19; 98,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,73; -14,95</t>
+          <t>-67,02; -15,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 48,78</t>
+          <t>-26,62; 50,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,42</t>
+          <t>-0,3; 4,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,99</t>
+          <t>-1,78; 2,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,33</t>
+          <t>3,9; 9,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,6</t>
+          <t>1,27; 7,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,09</t>
+          <t>-3,62; 0,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,41</t>
+          <t>5,67; 11,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,91</t>
+          <t>1,11; 5,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,5</t>
+          <t>-1,94; 0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,73</t>
+          <t>5,34; 9,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 1117,75</t>
+          <t>-60,57; 1074,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 794,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,73; 2544,95</t>
+          <t>110,44; 2833,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,1; 675,93</t>
+          <t>25,49; 669,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 70,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>122,28; 1120,03</t>
+          <t>142,82; 1230,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,78; 486,28</t>
+          <t>32,09; 507,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,02; 63,34</t>
+          <t>-81,95; 77,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>187,34; 1025,58</t>
+          <t>198,88; 1002,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,21</t>
+          <t>-0,82; 3,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,57</t>
+          <t>0,83; 5,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,96</t>
+          <t>2,02; 8,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,22</t>
+          <t>3,37; 9,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,13</t>
+          <t>1,69; 7,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,44</t>
+          <t>-0,09; 5,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,0</t>
+          <t>2,18; 6,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,28</t>
+          <t>2,15; 6,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,24</t>
+          <t>1,79; 6,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 727,22</t>
+          <t>-51,43; 633,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1115,38</t>
+          <t>-4,9; 1241,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,52; 2127,39</t>
+          <t>39,03; 1775,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>83,52; 720,08</t>
+          <t>81,36; 674,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,7; 598,67</t>
+          <t>41,24; 583,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 359,09</t>
+          <t>-1,44; 401,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,99; 509,6</t>
+          <t>79,5; 559,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>71,4; 526,31</t>
+          <t>71,8; 524,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,54; 500,91</t>
+          <t>61,41; 477,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 3,12</t>
+          <t>-2,79; 3,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,39</t>
+          <t>-1,8; 4,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 4,57</t>
+          <t>-1,18; 4,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,37</t>
+          <t>-0,83; 10,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,62</t>
+          <t>-4,14; 5,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 1,91</t>
+          <t>-6,06; 1,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,54</t>
+          <t>-0,56; 6,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,81</t>
+          <t>-2,34; 3,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,31</t>
+          <t>-2,7; 2,25</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 269,28</t>
+          <t>-74,26; 277,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 346,52</t>
+          <t>-57,01; 342,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 364,42</t>
+          <t>-34,62; 405,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 242,72</t>
+          <t>-14,29; 238,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 150,06</t>
+          <t>-48,3; 125,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 55,12</t>
+          <t>-64,71; 49,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 178,18</t>
+          <t>-12,39; 204,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 118,04</t>
+          <t>-39,3; 118,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 74,98</t>
+          <t>-40,95; 70,97</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,43</t>
+          <t>2,56; 7,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,0</t>
+          <t>2,23; 6,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,91</t>
+          <t>3,7; 7,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,6</t>
+          <t>1,05; 8,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,65</t>
+          <t>2,45; 10,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,68</t>
+          <t>3,88; 9,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,64</t>
+          <t>2,41; 6,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,45</t>
+          <t>2,88; 7,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,94</t>
+          <t>4,24; 7,83</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,31; 1037,9</t>
+          <t>-2,21; 887,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>57,24; 1768,41</t>
+          <t>38,15; 1050,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>104,44; 1496,41</t>
+          <t>70,66; 1154,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>116,45; 1548,06</t>
+          <t>102,23; 1442,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>143,03; 1895,82</t>
+          <t>161,87; 1680,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>215,12; 1964,57</t>
+          <t>216,65; 1938,05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,07</t>
+          <t>-4,5; -0,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,18</t>
+          <t>-2,82; 1,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,86</t>
+          <t>-0,27; 4,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,33</t>
+          <t>-3,87; 1,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,76</t>
+          <t>-2,21; 3,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,56</t>
+          <t>-4,45; 3,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,01</t>
+          <t>-3,44; 0,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,3</t>
+          <t>-1,56; 2,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,32</t>
+          <t>-1,67; 3,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-76,2; 3,86</t>
+          <t>-75,47; 3,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 70,08</t>
+          <t>-50,36; 60,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 146,35</t>
+          <t>-6,17; 139,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 25,76</t>
+          <t>-49,76; 30,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 73,21</t>
+          <t>-28,96; 69,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 64,33</t>
+          <t>-49,84; 61,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -1,24</t>
+          <t>-53,04; 1,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 51,75</t>
+          <t>-24,68; 47,14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 69,64</t>
+          <t>-25,91; 70,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,08</t>
+          <t>2,05; 7,15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,34</t>
+          <t>-3,46; 0,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,59</t>
+          <t>-3,44; 1,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,17</t>
+          <t>1,81; 7,54</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,33</t>
+          <t>-4,32; 0,34</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,5</t>
+          <t>-1,02; 3,76</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,41</t>
+          <t>2,61; 6,52</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,39</t>
+          <t>-3,57; -0,5</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,74</t>
+          <t>-2,46; 1,85</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>36,98; 215,2</t>
+          <t>36,08; 202,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,19; 11,01</t>
+          <t>-62,59; 10,13</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 41,02</t>
+          <t>-66,01; 44,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>20,37; 154,43</t>
+          <t>24,44; 174,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-64,16; -6,67</t>
+          <t>-62,91; 8,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 80,32</t>
+          <t>-14,81; 83,5</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>38,66; 150,47</t>
+          <t>40,13; 147,16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-56,02; -6,91</t>
+          <t>-58,16; -8,96</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 37,58</t>
+          <t>-39,1; 40,21</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>0,48; 2,49</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-0,73; 1,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,65</t>
+          <t>0,39; 2,75</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,2; 5,74</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-0,39; 1,79</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,18</t>
+          <t>0,35; 3,05</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>2,15; 3,72</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,3; 1,19</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,59</t>
+          <t>0,85; 2,58</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>15,65; 97,16</t>
+          <t>12,65; 87,05</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 40,33</t>
+          <t>-18,86; 37,89</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,13; 98,63</t>
+          <t>12,19; 101,55</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>60,87; 133,53</t>
+          <t>59,61; 133,82</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 39,7</t>
+          <t>-7,65; 41,35</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>9,7; 72,29</t>
+          <t>7,59; 70,61</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>50,02; 104,39</t>
+          <t>47,49; 99,88</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 33,43</t>
+          <t>-6,76; 31,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>20,62; 70,13</t>
+          <t>21,51; 71,03</t>
         </is>
       </c>
     </row>
